--- a/Ade.OfficeService.UnitTest/files/CarImport.xlsx
+++ b/Ade.OfficeService.UnitTest/files/CarImport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF8826-0B4F-44EE-879E-B63530C13992}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A063D8-5F5D-4FD0-AC1D-2DBCBEF2A770}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车牌号校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A17MG2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,31 +62,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名超长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GAY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非法性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20188888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非法日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正确数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂A27MG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂A37MG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂A47MG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂A57MG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是有效的车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是有效的性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是有效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅允许0 - 150的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是有效的国内手机号</t>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂A77MG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907163009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430781198907xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是有效的身份证号</t>
+  </si>
+  <si>
+    <t>鄂A87MG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂A99999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -160,6 +258,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,157 +541,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43101</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>18627769001</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3">
+        <v>18627769002</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>18627769003</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43101</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F4" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>18627769004</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>18627769005</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G6" s="2">
+        <v>151</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>18627769006</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G7" s="3">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>18627769007</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9">
+        <v>18627769008</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>234234</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G10" s="3">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>18627769009</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43101</v>
+      </c>
+      <c r="G11" s="3">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>43101</v>
+      </c>
+      <c r="G12" s="5">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43101</v>
-      </c>
-      <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43101</v>
-      </c>
-      <c r="E6" s="2">
-        <v>151</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43101</v>
-      </c>
-      <c r="E7" s="5">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
